--- a/Conception/Dictionnaire de données.xlsx
+++ b/Conception/Dictionnaire de données.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -92,9 +92,6 @@
     <t xml:space="preserve">teacher</t>
   </si>
   <si>
-    <t xml:space="preserve">id_teacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clé primaire d’un professeur à la fois clé étrangère de sa personne correspondante</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_student</t>
   </si>
   <si>
     <t xml:space="preserve">Clé primaire d’un élève et à la fois clé étrangère de la personne correspondante</t>
@@ -221,21 +215,6 @@
     <t xml:space="preserve">Nom du département</t>
   </si>
   <si>
-    <t xml:space="preserve">student_grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clé étrangère de l’élève de l’association</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clé étrangère de la note de l’association</t>
-  </si>
-  <si>
     <t xml:space="preserve">grade</t>
   </si>
   <si>
@@ -261,6 +240,12 @@
   </si>
   <si>
     <t xml:space="preserve">Clé étrangère de la matière de la note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clé étrangère de l’élève de la note</t>
   </si>
   <si>
     <t xml:space="preserve">subject</t>
@@ -877,10 +862,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.15"/>
@@ -1010,10 +995,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>9</v>
@@ -1100,10 +1085,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>14</v>
@@ -1119,13 +1104,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="14"/>
@@ -1139,13 +1124,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
@@ -1159,10 +1144,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>9</v>
@@ -1246,13 +1231,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>9</v>
@@ -1267,13 +1252,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>9</v>
@@ -1282,19 +1267,19 @@
         <v>50</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>9</v>
@@ -1378,13 +1363,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>9</v>
@@ -1399,13 +1384,13 @@
     </row>
     <row r="16" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>9</v>
@@ -1489,13 +1474,13 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>9</v>
@@ -1510,13 +1495,13 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>48</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>9</v>
@@ -1531,13 +1516,13 @@
     </row>
     <row r="19" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>9</v>
@@ -1621,13 +1606,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>9</v>
@@ -1640,32 +1625,32 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>9</v>
@@ -1684,13 +1669,13 @@
     </row>
     <row r="23" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>9</v>
@@ -1774,13 +1759,13 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>63</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>9</v>
@@ -1795,13 +1780,13 @@
     </row>
     <row r="25" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>9</v>
@@ -1816,15 +1801,15 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>9</v>
@@ -1832,415 +1817,349 @@
       <c r="E26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="F26" s="10"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="16"/>
-      <c r="AN26" s="16"/>
-      <c r="AO26" s="16"/>
-      <c r="AP26" s="16"/>
-      <c r="AQ26" s="16"/>
-      <c r="AR26" s="16"/>
-      <c r="AS26" s="16"/>
-      <c r="AT26" s="16"/>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="16"/>
-      <c r="AW26" s="16"/>
-      <c r="AX26" s="16"/>
-      <c r="AY26" s="16"/>
-      <c r="AZ26" s="16"/>
-      <c r="BA26" s="16"/>
-      <c r="BB26" s="16"/>
-      <c r="BC26" s="16"/>
-      <c r="BD26" s="16"/>
-      <c r="BE26" s="16"/>
-      <c r="BF26" s="16"/>
-      <c r="BG26" s="16"/>
-      <c r="BH26" s="16"/>
-      <c r="BI26" s="16"/>
-      <c r="BJ26" s="16"/>
-      <c r="BK26" s="16"/>
-      <c r="BL26" s="16"/>
-      <c r="BM26" s="16"/>
-      <c r="BN26" s="16"/>
-      <c r="BO26" s="16"/>
-      <c r="BP26" s="16"/>
-      <c r="BQ26" s="16"/>
-      <c r="BR26" s="16"/>
-      <c r="BS26" s="16"/>
-      <c r="BT26" s="16"/>
-      <c r="AMG26" s="0"/>
-      <c r="AMH26" s="0"/>
-      <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
-    </row>
-    <row r="27" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="35" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>11</v>
-      </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
-      <c r="AO27" s="16"/>
-      <c r="AP27" s="16"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="16"/>
-      <c r="AS27" s="16"/>
-      <c r="AT27" s="16"/>
-      <c r="AU27" s="16"/>
-      <c r="AV27" s="16"/>
-      <c r="AW27" s="16"/>
-      <c r="AX27" s="16"/>
-      <c r="AY27" s="16"/>
-      <c r="AZ27" s="16"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="16"/>
-      <c r="BC27" s="16"/>
-      <c r="BD27" s="16"/>
-      <c r="BE27" s="16"/>
-      <c r="BF27" s="16"/>
-      <c r="BG27" s="16"/>
-      <c r="BH27" s="16"/>
-      <c r="BI27" s="16"/>
-      <c r="BJ27" s="16"/>
-      <c r="BK27" s="16"/>
-      <c r="BL27" s="16"/>
-      <c r="BM27" s="16"/>
-      <c r="BN27" s="16"/>
-      <c r="BO27" s="16"/>
-      <c r="BP27" s="16"/>
-      <c r="BQ27" s="16"/>
-      <c r="BR27" s="16"/>
-      <c r="BS27" s="16"/>
-      <c r="BT27" s="16"/>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>10</v>
+      <c r="E28" s="13" t="n">
+        <v>50</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>71</v>
+    <row r="29" s="16" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AMG29" s="0"/>
+      <c r="AMH29" s="0"/>
+      <c r="AMI29" s="0"/>
+      <c r="AMJ29" s="0"/>
+    </row>
+    <row r="30" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="D30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="16"/>
+      <c r="AO30" s="16"/>
+      <c r="AP30" s="16"/>
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="16"/>
+      <c r="AT30" s="16"/>
+      <c r="AU30" s="16"/>
+      <c r="AV30" s="16"/>
+      <c r="AW30" s="16"/>
+      <c r="AX30" s="16"/>
+      <c r="AY30" s="16"/>
+      <c r="AZ30" s="16"/>
+      <c r="BA30" s="16"/>
+      <c r="BB30" s="16"/>
+      <c r="BC30" s="16"/>
+      <c r="BD30" s="16"/>
+      <c r="BE30" s="16"/>
+      <c r="BF30" s="16"/>
+      <c r="BG30" s="16"/>
+      <c r="BH30" s="16"/>
+      <c r="BI30" s="16"/>
+      <c r="BJ30" s="16"/>
+      <c r="BK30" s="16"/>
+      <c r="BL30" s="16"/>
+      <c r="BM30" s="16"/>
+      <c r="BN30" s="16"/>
+      <c r="BO30" s="16"/>
+      <c r="BP30" s="16"/>
+      <c r="BQ30" s="16"/>
+      <c r="BR30" s="16"/>
+      <c r="BS30" s="16"/>
+      <c r="BT30" s="16"/>
+      <c r="AMG30" s="0"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="14" t="s">
+      <c r="B31" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="C31" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="D31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
-      <c r="AJ31" s="16"/>
-      <c r="AK31" s="16"/>
-      <c r="AL31" s="16"/>
-      <c r="AM31" s="16"/>
-      <c r="AN31" s="16"/>
-      <c r="AO31" s="16"/>
-      <c r="AP31" s="16"/>
-      <c r="AQ31" s="16"/>
-      <c r="AR31" s="16"/>
-      <c r="AS31" s="16"/>
-      <c r="AT31" s="16"/>
-      <c r="AU31" s="16"/>
-      <c r="AV31" s="16"/>
-      <c r="AW31" s="16"/>
-      <c r="AX31" s="16"/>
-      <c r="AY31" s="16"/>
-      <c r="AZ31" s="16"/>
-      <c r="BA31" s="16"/>
-      <c r="BB31" s="16"/>
-      <c r="BC31" s="16"/>
-      <c r="BD31" s="16"/>
-      <c r="BE31" s="16"/>
-      <c r="BF31" s="16"/>
-      <c r="BG31" s="16"/>
-      <c r="BH31" s="16"/>
-      <c r="BI31" s="16"/>
-      <c r="BJ31" s="16"/>
-      <c r="BK31" s="16"/>
-      <c r="BL31" s="16"/>
-      <c r="BM31" s="16"/>
-      <c r="BN31" s="16"/>
-      <c r="BO31" s="16"/>
-      <c r="BP31" s="16"/>
-      <c r="BQ31" s="16"/>
-      <c r="BR31" s="16"/>
-      <c r="BS31" s="16"/>
-      <c r="BT31" s="16"/>
-      <c r="AMG31" s="0"/>
-      <c r="AMH31" s="0"/>
-      <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="E32" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" s="14"/>
       <c r="G32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="C33" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="20" t="n">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="20" t="n">
-        <v>255</v>
+        <v>54</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="14"/>
+    <row r="35" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="G35" s="6"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="16"/>
+      <c r="BC35" s="16"/>
+      <c r="BD35" s="16"/>
+      <c r="BE35" s="16"/>
+      <c r="BF35" s="16"/>
+      <c r="BG35" s="16"/>
+      <c r="BH35" s="16"/>
+      <c r="BI35" s="16"/>
+      <c r="BJ35" s="16"/>
+      <c r="BK35" s="16"/>
+      <c r="BL35" s="16"/>
+      <c r="BM35" s="16"/>
+      <c r="BN35" s="16"/>
+      <c r="BO35" s="16"/>
+      <c r="BP35" s="16"/>
+      <c r="BQ35" s="16"/>
+      <c r="BR35" s="16"/>
+      <c r="BS35" s="16"/>
+      <c r="BT35" s="16"/>
+      <c r="AMG35" s="0"/>
+      <c r="AMH35" s="0"/>
+      <c r="AMI35" s="0"/>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B36" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>90</v>
-      </c>
       <c r="D36" s="35" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="16"/>
@@ -2313,179 +2232,97 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="35" t="s">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="16"/>
-      <c r="AK37" s="16"/>
-      <c r="AL37" s="16"/>
-      <c r="AM37" s="16"/>
-      <c r="AN37" s="16"/>
-      <c r="AO37" s="16"/>
-      <c r="AP37" s="16"/>
-      <c r="AQ37" s="16"/>
-      <c r="AR37" s="16"/>
-      <c r="AS37" s="16"/>
-      <c r="AT37" s="16"/>
-      <c r="AU37" s="16"/>
-      <c r="AV37" s="16"/>
-      <c r="AW37" s="16"/>
-      <c r="AX37" s="16"/>
-      <c r="AY37" s="16"/>
-      <c r="AZ37" s="16"/>
-      <c r="BA37" s="16"/>
-      <c r="BB37" s="16"/>
-      <c r="BC37" s="16"/>
-      <c r="BD37" s="16"/>
-      <c r="BE37" s="16"/>
-      <c r="BF37" s="16"/>
-      <c r="BG37" s="16"/>
-      <c r="BH37" s="16"/>
-      <c r="BI37" s="16"/>
-      <c r="BJ37" s="16"/>
-      <c r="BK37" s="16"/>
-      <c r="BL37" s="16"/>
-      <c r="BM37" s="16"/>
-      <c r="BN37" s="16"/>
-      <c r="BO37" s="16"/>
-      <c r="BP37" s="16"/>
-      <c r="BQ37" s="16"/>
-      <c r="BR37" s="16"/>
-      <c r="BS37" s="16"/>
-      <c r="BT37" s="16"/>
-      <c r="AMG37" s="0"/>
-      <c r="AMH37" s="0"/>
-      <c r="AMI37" s="0"/>
-      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="45" t="s">
-        <v>11</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="45"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="42" t="s">
+      <c r="C40" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="45"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="42" t="s">
+      <c r="D40" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="E40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="44" t="s">
+      <c r="F40" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="45"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="49" t="s">
-        <v>104</v>
-      </c>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="50"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="50"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="52"/>
@@ -2528,12 +2365,12 @@
       <c r="F47" s="52"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="52"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="54"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="54"/>
@@ -2544,11 +2381,11 @@
       <c r="F49" s="54"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="54"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2768,11 +2605,11 @@
       <c r="F77" s="54"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
       <c r="F78" s="54"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10150,14 +9987,6 @@
       <c r="D1000" s="55"/>
       <c r="E1000" s="55"/>
       <c r="F1000" s="54"/>
-    </row>
-    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="54"/>
-      <c r="B1001" s="54"/>
-      <c r="C1001" s="54"/>
-      <c r="D1001" s="55"/>
-      <c r="E1001" s="55"/>
-      <c r="F1001" s="54"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -10190,7 +10019,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
